--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetsuya.maeda\Documents\GitHub\excelmacro\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20415" windowHeight="8010"/>
   </bookViews>
@@ -16,51 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>HogeEnum</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Integer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Apple</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Banana</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dog</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リンゴ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バナナ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>猫</t>
-    <rPh sb="0" eb="1">
-      <t>ネコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>犬</t>
-    <rPh sb="0" eb="1">
-      <t>イヌ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -88,12 +51,79 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>AppError</t>
+  </si>
+  <si>
+    <t>アプリエラー</t>
+  </si>
+  <si>
+    <t>DBError</t>
+  </si>
+  <si>
+    <t>データベースエラー</t>
+  </si>
+  <si>
+    <t>LoginError</t>
+  </si>
+  <si>
+    <t>ログイン失敗</t>
+  </si>
+  <si>
+    <t>SyouhinNotFound</t>
+  </si>
+  <si>
+    <t>商品情報なし</t>
+  </si>
+  <si>
+    <t>SyukaTanadashi_InvCountOver</t>
+  </si>
+  <si>
+    <t>在庫数超過</t>
+  </si>
+  <si>
+    <t>SyukaTanadashi_TargetNotFound</t>
+  </si>
+  <si>
+    <t>該当行なし</t>
+  </si>
+  <si>
+    <t>SyukaTanadashi_ShijiOver</t>
+  </si>
+  <si>
+    <t>指示数超過</t>
+  </si>
+  <si>
+    <t>SyukaTanadashi_AreaQtyTotalOver</t>
+  </si>
+  <si>
+    <t>出荷先数量超過</t>
+  </si>
+  <si>
+    <t>ReulstCode</t>
+  </si>
+  <si>
+    <t>処理結果コード</t>
+  </si>
+  <si>
+    <t>項目4</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +190,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -206,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,9 +276,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,6 +311,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,93 +487,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -543,13 +646,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -557,13 +660,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetsuya.maeda\Documents\GitHub\excelmacro\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20415" windowHeight="8010"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Integer</t>
     <phoneticPr fontId="1"/>
@@ -76,36 +71,6 @@
     <t>ログイン失敗</t>
   </si>
   <si>
-    <t>SyouhinNotFound</t>
-  </si>
-  <si>
-    <t>商品情報なし</t>
-  </si>
-  <si>
-    <t>SyukaTanadashi_InvCountOver</t>
-  </si>
-  <si>
-    <t>在庫数超過</t>
-  </si>
-  <si>
-    <t>SyukaTanadashi_TargetNotFound</t>
-  </si>
-  <si>
-    <t>該当行なし</t>
-  </si>
-  <si>
-    <t>SyukaTanadashi_ShijiOver</t>
-  </si>
-  <si>
-    <t>指示数超過</t>
-  </si>
-  <si>
-    <t>SyukaTanadashi_AreaQtyTotalOver</t>
-  </si>
-  <si>
-    <t>出荷先数量超過</t>
-  </si>
-  <si>
     <t>ReulstCode</t>
   </si>
   <si>
@@ -122,8 +87,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,10 +241,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,7 +275,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,17 +450,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A11" sqref="A11:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -505,15 +468,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -521,15 +484,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -539,105 +502,87 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>-1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>-2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
         <v>-10</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1">
-        <v>-14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1">
-        <v>-15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -646,13 +591,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -660,13 +605,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
